--- a/docs/StructureDefinition-QuestionnaireResponseAtenderLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseAtenderLE.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -623,7 +626,7 @@
     <t>QuestionnaireResponse.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/EncounterAtenderLE)
 </t>
   </si>
   <si>
@@ -1063,6 +1066,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1399,7 +1417,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
@@ -1510,7 +1528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -1621,7 +1639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -1841,7 +1859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -1952,7 +1970,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -2063,7 +2081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -2174,7 +2192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -2285,7 +2303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -2398,7 +2416,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>141</v>
       </c>
@@ -2509,7 +2527,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
@@ -2620,7 +2638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>157</v>
       </c>
@@ -2731,7 +2749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>164</v>
       </c>
@@ -2844,7 +2862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>173</v>
       </c>
@@ -2957,7 +2975,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>184</v>
       </c>
@@ -3070,7 +3088,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>194</v>
       </c>
@@ -3083,13 +3101,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3183,7 +3201,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>203</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>213</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>223</v>
       </c>
@@ -3522,7 +3540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>231</v>
       </c>
@@ -3633,7 +3651,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>238</v>
       </c>
@@ -3742,7 +3760,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>244</v>
       </c>
@@ -3853,7 +3871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>247</v>
       </c>
@@ -3966,7 +3984,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>252</v>
       </c>
@@ -4077,7 +4095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>258</v>
       </c>
@@ -4190,7 +4208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>264</v>
       </c>
@@ -4301,7 +4319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>269</v>
       </c>
@@ -4412,7 +4430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>274</v>
       </c>
@@ -4521,7 +4539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>275</v>
       </c>
@@ -4632,7 +4650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>276</v>
       </c>
@@ -4745,7 +4763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>277</v>
       </c>
@@ -4858,7 +4876,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>287</v>
       </c>
@@ -4969,7 +4987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>291</v>
       </c>
@@ -5081,6 +5099,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM34">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI33">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-QuestionnaireResponseAtenderLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseAtenderLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1258,17 +1258,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.9140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="46.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.84765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1277,25 +1277,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.9375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="108.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="111.80859375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-QuestionnaireResponseAtenderLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
